--- a/merise/travel_agency/Documentation TP Travel Agency/TP TravelAgency.xlsx
+++ b/merise/travel_agency/Documentation TP Travel Agency/TP TravelAgency.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arfpasso-my.sharepoint.com/personal/fturleque_arfp_asso_fr/Documents/Documents/CDA/Exercices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\CDA_2111\merise\travel_agency\Documentation TP Travel Agency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC104858D91840D85ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A3A295-5AF6-418A-A5D0-9CB1449652B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217ED7C-245D-434F-A828-FE1C56B2499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
     <sheet name="Matrice" sheetId="2" r:id="rId2"/>
+    <sheet name="Matrice Simplifier" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="105">
   <si>
     <t>Mnémonique</t>
   </si>
@@ -1233,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1328,51 +1329,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1409,27 +1365,9 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1439,9 +1377,6 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1451,15 +1386,9 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1478,36 +1407,21 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1517,15 +1431,9 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1535,42 +1443,24 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1580,13 +1470,7 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,15 +1494,9 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1626,9 +1504,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,18 +1530,216 @@
     <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1676,140 +1749,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2129,7 +2148,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="151" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2149,7 +2168,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
+      <c r="A3" s="145"/>
       <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
@@ -2167,7 +2186,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
@@ -2185,7 +2204,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="145"/>
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
@@ -2203,7 +2222,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
+      <c r="A6" s="145"/>
       <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
@@ -2221,7 +2240,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="145"/>
       <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
@@ -2239,7 +2258,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="13" t="s">
         <v>27</v>
       </c>
@@ -2257,7 +2276,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="152" t="s">
         <v>99</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -2277,7 +2296,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="14" t="s">
         <v>33</v>
       </c>
@@ -2295,7 +2314,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="14" t="s">
         <v>35</v>
       </c>
@@ -2313,10 +2332,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="153" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="153" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="15"/>
@@ -2327,8 +2346,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
@@ -2343,7 +2362,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
+      <c r="A14" s="146"/>
       <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
@@ -2361,7 +2380,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="154" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -2381,7 +2400,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
+      <c r="A16" s="146"/>
       <c r="B16" s="18" t="s">
         <v>46</v>
       </c>
@@ -2399,7 +2418,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="155" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -2419,7 +2438,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="145"/>
       <c r="B18" s="19" t="s">
         <v>50</v>
       </c>
@@ -2437,7 +2456,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="145"/>
       <c r="B19" s="19" t="s">
         <v>52</v>
       </c>
@@ -2455,7 +2474,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
+      <c r="A20" s="145"/>
       <c r="B20" s="19" t="s">
         <v>55</v>
       </c>
@@ -2473,7 +2492,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
+      <c r="A21" s="145"/>
       <c r="B21" s="19" t="s">
         <v>60</v>
       </c>
@@ -2491,7 +2510,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="145"/>
       <c r="B22" s="19" t="s">
         <v>62</v>
       </c>
@@ -2509,7 +2528,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="145"/>
       <c r="B23" s="19" t="s">
         <v>65</v>
       </c>
@@ -2527,7 +2546,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="A24" s="146"/>
       <c r="B24" s="19" t="s">
         <v>67</v>
       </c>
@@ -2545,7 +2564,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="156"/>
       <c r="B25" s="20" t="s">
         <v>71</v>
       </c>
@@ -2563,7 +2582,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
+      <c r="A26" s="146"/>
       <c r="B26" s="20" t="s">
         <v>73</v>
       </c>
@@ -2581,7 +2600,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="157"/>
       <c r="B27" s="21" t="s">
         <v>76</v>
       </c>
@@ -2595,7 +2614,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="146"/>
       <c r="B28" s="24" t="s">
         <v>78</v>
       </c>
@@ -2613,7 +2632,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="144" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="25" t="s">
@@ -2633,7 +2652,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
+      <c r="A30" s="145"/>
       <c r="B30" s="25" t="s">
         <v>82</v>
       </c>
@@ -2651,7 +2670,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
+      <c r="A31" s="146"/>
       <c r="B31" s="25" t="s">
         <v>84</v>
       </c>
@@ -2669,7 +2688,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="147" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="26" t="s">
@@ -2689,7 +2708,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="145"/>
       <c r="B33" s="26" t="s">
         <v>88</v>
       </c>
@@ -2707,7 +2726,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="145"/>
       <c r="B34" s="26" t="s">
         <v>90</v>
       </c>
@@ -2725,7 +2744,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
+      <c r="A35" s="145"/>
       <c r="B35" s="26" t="s">
         <v>92</v>
       </c>
@@ -2743,11 +2762,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="145"/>
+      <c r="B36" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="149" t="s">
         <v>96</v>
       </c>
       <c r="D36" s="27"/>
@@ -2755,9 +2774,9 @@
       <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="146"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="150"/>
       <c r="D37" s="10" t="s">
         <v>17</v>
       </c>
@@ -2800,1640 +2819,1652 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7FD1AA-7ABA-4BC0-BF4A-BA2229E7BC27}">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O39" sqref="O39"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" style="51" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="51" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="51"/>
-    <col min="26" max="26" width="8.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="8.5703125" style="51" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" style="51" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="12.85546875" style="51"/>
+    <col min="1" max="1" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="36" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" style="36" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="36"/>
+    <col min="26" max="26" width="8.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="8.5703125" style="36" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="12.85546875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="68" t="s">
+      <c r="A1" s="182"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="90" t="s">
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="176" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="99" t="s">
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="107" t="s">
+      <c r="N1" s="162"/>
+      <c r="O1" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="110" t="s">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="165" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="131" t="s">
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="99" t="s">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="149"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="160"/>
+      <c r="AJ1" s="161"/>
     </row>
     <row r="2" spans="1:36" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="70" t="s">
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="93" t="s">
+      <c r="K2" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="L2" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="102" t="s">
+      <c r="N2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="109" t="s">
+      <c r="O2" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="106" t="s">
+      <c r="P2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="113" t="s">
+      <c r="Q2" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="114" t="s">
+      <c r="R2" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="114" t="s">
+      <c r="S2" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="114" t="s">
+      <c r="T2" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="114" t="s">
+      <c r="U2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="114" t="s">
+      <c r="V2" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="114" t="s">
+      <c r="W2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="115" t="s">
+      <c r="X2" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="122" t="s">
+      <c r="Y2" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="124" t="s">
+      <c r="Z2" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="122" t="s">
+      <c r="AA2" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="123" t="s">
+      <c r="AB2" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="AC2" s="133" t="s">
+      <c r="AC2" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="AD2" s="134" t="s">
+      <c r="AD2" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="AE2" s="135" t="s">
+      <c r="AE2" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="AF2" s="100" t="s">
+      <c r="AF2" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="AG2" s="138" t="s">
+      <c r="AG2" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" s="139" t="s">
+      <c r="AH2" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" s="139" t="s">
+      <c r="AI2" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="140" t="s">
+      <c r="AJ2" s="98" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="153"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="155"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="95"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="106"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="190"/>
+      <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="55">
         <v>1</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="160"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="111"/>
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="111"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="190"/>
+      <c r="B5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="55">
         <v>1</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="156"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="156"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="159"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="47"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="160"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="111"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="190"/>
+      <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="55">
         <v>1</v>
       </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="159"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="161"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="159"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="160"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="110"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="111"/>
+      <c r="AC6" s="112"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="111"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76" t="s">
+      <c r="A7" s="190"/>
+      <c r="B7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="55">
         <v>1</v>
       </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="158"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="156"/>
-      <c r="Z7" s="159"/>
-      <c r="AA7" s="156"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="156"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="160"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="111"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="110"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="111"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="190"/>
+      <c r="B8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="113">
         <v>1</v>
       </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="158"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="158"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="158"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="156"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="156"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="159"/>
-      <c r="AF8" s="156"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="160"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="107"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="33"/>
+      <c r="AJ8" s="111"/>
     </row>
     <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="191"/>
+      <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="165">
+      <c r="C9" s="116">
         <v>1</v>
       </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="169"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="168"/>
-      <c r="AB9" s="171"/>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="174"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="175"/>
-      <c r="AI9" s="175"/>
-      <c r="AJ9" s="176"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="125"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="127"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="192" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="177"/>
-      <c r="U10" s="177"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="151"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="178"/>
-      <c r="AB10" s="155"/>
-      <c r="AC10" s="179"/>
-      <c r="AD10" s="154"/>
-      <c r="AE10" s="180"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="181"/>
-      <c r="AH10" s="181"/>
-      <c r="AI10" s="181"/>
-      <c r="AJ10" s="153"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="101"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="129"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="105"/>
+      <c r="AE10" s="131"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="104"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="193"/>
+      <c r="B11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="156">
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="107">
         <v>1</v>
       </c>
-      <c r="K11" s="157"/>
-      <c r="L11" s="158"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="158"/>
-      <c r="O11" s="156"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="156"/>
-      <c r="R11" s="157"/>
-      <c r="S11" s="157"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="157"/>
-      <c r="X11" s="158"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="159"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="160"/>
-      <c r="AC11" s="161"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="159"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="160"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="111"/>
     </row>
     <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89" t="s">
+      <c r="A12" s="194"/>
+      <c r="B12" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="168"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="168">
+      <c r="C12" s="119"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="119">
         <v>1</v>
       </c>
-      <c r="K12" s="121"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
-      <c r="W12" s="121"/>
-      <c r="X12" s="169"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="170"/>
-      <c r="AA12" s="174"/>
-      <c r="AB12" s="176"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="175"/>
-      <c r="AE12" s="183"/>
-      <c r="AF12" s="168"/>
-      <c r="AG12" s="173"/>
-      <c r="AH12" s="173"/>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="171"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="121"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="133"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="124"/>
+      <c r="AH12" s="124"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="122"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
-      <c r="U13" s="177"/>
-      <c r="V13" s="177"/>
-      <c r="W13" s="177"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="150"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="150"/>
-      <c r="AB13" s="153"/>
-      <c r="AC13" s="184"/>
-      <c r="AD13" s="181"/>
-      <c r="AE13" s="152"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="154"/>
-      <c r="AH13" s="154"/>
-      <c r="AI13" s="154"/>
-      <c r="AJ13" s="155"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="132"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="129"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="106"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="188"/>
+      <c r="B14" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="168">
+      <c r="C14" s="119"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="119">
         <v>1</v>
       </c>
-      <c r="N14" s="169"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
-      <c r="W14" s="121"/>
-      <c r="X14" s="169"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="170"/>
-      <c r="AA14" s="168"/>
-      <c r="AB14" s="171"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="170"/>
-      <c r="AF14" s="174"/>
-      <c r="AG14" s="175"/>
-      <c r="AH14" s="175"/>
-      <c r="AI14" s="175"/>
-      <c r="AJ14" s="176"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="122"/>
+      <c r="AC14" s="123"/>
+      <c r="AD14" s="124"/>
+      <c r="AE14" s="121"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="127"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="195" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="186"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="186"/>
-      <c r="O15" s="190"/>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="186"/>
-      <c r="Y15" s="178"/>
-      <c r="Z15" s="180"/>
-      <c r="AA15" s="178"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="179"/>
-      <c r="AD15" s="154"/>
-      <c r="AE15" s="180"/>
-      <c r="AF15" s="150"/>
-      <c r="AG15" s="181"/>
-      <c r="AH15" s="181"/>
-      <c r="AI15" s="181"/>
-      <c r="AJ15" s="153"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="129"/>
+      <c r="R15" s="136"/>
+      <c r="S15" s="136"/>
+      <c r="T15" s="136"/>
+      <c r="U15" s="136"/>
+      <c r="V15" s="136"/>
+      <c r="W15" s="136"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="129"/>
+      <c r="Z15" s="131"/>
+      <c r="AA15" s="129"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="131"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="104"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105"/>
-      <c r="B16" s="106" t="s">
+      <c r="A16" s="196"/>
+      <c r="B16" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="174"/>
-      <c r="N16" s="188"/>
-      <c r="O16" s="174">
+      <c r="C16" s="125"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="125">
         <v>1</v>
       </c>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="174"/>
-      <c r="R16" s="187"/>
-      <c r="S16" s="187"/>
-      <c r="T16" s="187"/>
-      <c r="U16" s="187"/>
-      <c r="V16" s="187"/>
-      <c r="W16" s="187"/>
-      <c r="X16" s="188"/>
-      <c r="Y16" s="174"/>
-      <c r="Z16" s="183"/>
-      <c r="AA16" s="174"/>
-      <c r="AB16" s="176"/>
-      <c r="AC16" s="182"/>
-      <c r="AD16" s="175"/>
-      <c r="AE16" s="183"/>
-      <c r="AF16" s="168"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="173"/>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="171"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="138"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
+      <c r="W16" s="138"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="134"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="133"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="134"/>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="124"/>
+      <c r="AH16" s="124"/>
+      <c r="AI16" s="124"/>
+      <c r="AJ16" s="122"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="150"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="189"/>
-      <c r="R17" s="177"/>
-      <c r="S17" s="177"/>
-      <c r="T17" s="177"/>
-      <c r="U17" s="177"/>
-      <c r="V17" s="177"/>
-      <c r="W17" s="177"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="150"/>
-      <c r="Z17" s="152"/>
-      <c r="AA17" s="150"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="184"/>
-      <c r="AD17" s="181"/>
-      <c r="AE17" s="152"/>
-      <c r="AF17" s="178"/>
-      <c r="AG17" s="154"/>
-      <c r="AH17" s="154"/>
-      <c r="AI17" s="154"/>
-      <c r="AJ17" s="155"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="129"/>
+      <c r="AG17" s="105"/>
+      <c r="AH17" s="105"/>
+      <c r="AI17" s="105"/>
+      <c r="AJ17" s="106"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="118"/>
-      <c r="B18" s="119" t="s">
+      <c r="A18" s="198"/>
+      <c r="B18" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="156"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="156"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="156">
+      <c r="C18" s="107"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="107">
         <v>1</v>
       </c>
-      <c r="R18" s="157"/>
-      <c r="S18" s="157"/>
-      <c r="T18" s="157"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="157"/>
-      <c r="W18" s="157"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="156"/>
-      <c r="Z18" s="159"/>
-      <c r="AA18" s="156"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="159"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="160"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="111"/>
+      <c r="AC18" s="112"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="111"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="118"/>
-      <c r="B19" s="119" t="s">
+      <c r="A19" s="198"/>
+      <c r="B19" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="156"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="156">
+      <c r="C19" s="107"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="107">
         <v>1</v>
       </c>
-      <c r="R19" s="157"/>
-      <c r="S19" s="157"/>
-      <c r="T19" s="157"/>
-      <c r="U19" s="157"/>
-      <c r="V19" s="157"/>
-      <c r="W19" s="157"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="156"/>
-      <c r="Z19" s="159"/>
-      <c r="AA19" s="156"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="161"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="159"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="160"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="110"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="111"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="111"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="118"/>
-      <c r="B20" s="119" t="s">
+      <c r="A20" s="198"/>
+      <c r="B20" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="156"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="156">
+      <c r="C20" s="107"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="107">
         <v>1</v>
       </c>
-      <c r="R20" s="157"/>
-      <c r="S20" s="157"/>
-      <c r="T20" s="157"/>
-      <c r="U20" s="157"/>
-      <c r="V20" s="157"/>
-      <c r="W20" s="157"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="156"/>
-      <c r="Z20" s="159"/>
-      <c r="AA20" s="156"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="159"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="160"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="110"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="111"/>
+      <c r="AC20" s="112"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="110"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="33"/>
+      <c r="AJ20" s="111"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="118"/>
-      <c r="B21" s="119" t="s">
+      <c r="A21" s="198"/>
+      <c r="B21" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="156"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="156">
+      <c r="C21" s="107"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="107">
         <v>1</v>
       </c>
-      <c r="R21" s="157"/>
-      <c r="S21" s="157"/>
-      <c r="T21" s="157"/>
-      <c r="U21" s="157"/>
-      <c r="V21" s="157"/>
-      <c r="W21" s="157"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="156"/>
-      <c r="Z21" s="159"/>
-      <c r="AA21" s="156"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="161"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="159"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="160"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="111"/>
+      <c r="AC21" s="112"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="111"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="118"/>
-      <c r="B22" s="119" t="s">
+      <c r="A22" s="198"/>
+      <c r="B22" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="156"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="156">
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="107">
         <v>1</v>
       </c>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="157"/>
-      <c r="W22" s="157"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="159"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="161"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="159"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="160"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="112"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="110"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="33"/>
+      <c r="AJ22" s="111"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
-      <c r="B23" s="119" t="s">
+      <c r="A23" s="198"/>
+      <c r="B23" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="158"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="156"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="156">
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="107">
         <v>1</v>
       </c>
-      <c r="R23" s="157"/>
-      <c r="S23" s="157"/>
-      <c r="T23" s="157"/>
-      <c r="U23" s="157"/>
-      <c r="V23" s="157"/>
-      <c r="W23" s="157"/>
-      <c r="X23" s="158"/>
-      <c r="Y23" s="156"/>
-      <c r="Z23" s="159"/>
-      <c r="AA23" s="156"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="161"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="159"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="48"/>
-      <c r="AH23" s="48"/>
-      <c r="AI23" s="48"/>
-      <c r="AJ23" s="160"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="110"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="110"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="111"/>
     </row>
     <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="118"/>
-      <c r="B24" s="120" t="s">
+      <c r="A24" s="198"/>
+      <c r="B24" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="168"/>
-      <c r="P24" s="169"/>
-      <c r="Q24" s="168">
+      <c r="C24" s="119"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="120"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="119">
         <v>1</v>
       </c>
-      <c r="R24" s="121"/>
-      <c r="S24" s="121"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="121"/>
-      <c r="V24" s="121"/>
-      <c r="W24" s="121"/>
-      <c r="X24" s="169"/>
-      <c r="Y24" s="168"/>
-      <c r="Z24" s="170"/>
-      <c r="AA24" s="168"/>
-      <c r="AB24" s="171"/>
-      <c r="AC24" s="172"/>
-      <c r="AD24" s="173"/>
-      <c r="AE24" s="170"/>
-      <c r="AF24" s="174"/>
-      <c r="AG24" s="175"/>
-      <c r="AH24" s="175"/>
-      <c r="AI24" s="175"/>
-      <c r="AJ24" s="176"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="120"/>
+      <c r="Y24" s="119"/>
+      <c r="Z24" s="121"/>
+      <c r="AA24" s="119"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="123"/>
+      <c r="AD24" s="124"/>
+      <c r="AE24" s="121"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="126"/>
+      <c r="AH24" s="126"/>
+      <c r="AI24" s="126"/>
+      <c r="AJ24" s="127"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="178"/>
+      <c r="B25" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
-      <c r="H25" s="185"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="185"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="186"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="185"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="185"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="178"/>
-      <c r="Z25" s="180"/>
-      <c r="AA25" s="178"/>
-      <c r="AB25" s="155"/>
-      <c r="AC25" s="179"/>
-      <c r="AD25" s="154"/>
-      <c r="AE25" s="180"/>
-      <c r="AF25" s="150"/>
-      <c r="AG25" s="181"/>
-      <c r="AH25" s="181"/>
-      <c r="AI25" s="181"/>
-      <c r="AJ25" s="153"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="137"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="129"/>
+      <c r="R25" s="136"/>
+      <c r="S25" s="136"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="136"/>
+      <c r="V25" s="136"/>
+      <c r="W25" s="136"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="129"/>
+      <c r="Z25" s="131"/>
+      <c r="AA25" s="129"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="130"/>
+      <c r="AD25" s="105"/>
+      <c r="AE25" s="131"/>
+      <c r="AF25" s="101"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="132"/>
+      <c r="AJ25" s="104"/>
     </row>
     <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="56" t="s">
+      <c r="A26" s="179"/>
+      <c r="B26" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="188"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="188"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="188"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="187"/>
-      <c r="T26" s="187"/>
-      <c r="U26" s="187"/>
-      <c r="V26" s="187"/>
-      <c r="W26" s="187"/>
-      <c r="X26" s="188"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="183"/>
-      <c r="AA26" s="174"/>
-      <c r="AB26" s="176"/>
-      <c r="AC26" s="182"/>
-      <c r="AD26" s="175"/>
-      <c r="AE26" s="183"/>
-      <c r="AF26" s="168"/>
-      <c r="AG26" s="173"/>
-      <c r="AH26" s="173"/>
-      <c r="AI26" s="173"/>
-      <c r="AJ26" s="171"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="138"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="138"/>
+      <c r="W26" s="138"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="125"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="133"/>
+      <c r="AD26" s="126"/>
+      <c r="AE26" s="134"/>
+      <c r="AF26" s="119"/>
+      <c r="AG26" s="124"/>
+      <c r="AH26" s="124"/>
+      <c r="AI26" s="124"/>
+      <c r="AJ26" s="122"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="178"/>
+      <c r="B27" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="150"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="150"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="150"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="177"/>
-      <c r="S27" s="177"/>
-      <c r="T27" s="177"/>
-      <c r="U27" s="177"/>
-      <c r="V27" s="177"/>
-      <c r="W27" s="177"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="150"/>
-      <c r="Z27" s="152"/>
-      <c r="AA27" s="150"/>
-      <c r="AB27" s="153"/>
-      <c r="AC27" s="184"/>
-      <c r="AD27" s="181"/>
-      <c r="AE27" s="152"/>
-      <c r="AF27" s="178"/>
-      <c r="AG27" s="154"/>
-      <c r="AH27" s="154"/>
-      <c r="AI27" s="154"/>
-      <c r="AJ27" s="155"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="132"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="129"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="106"/>
     </row>
     <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
-      <c r="B28" s="56" t="s">
+      <c r="A28" s="179"/>
+      <c r="B28" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="168"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="168"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="168"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="169"/>
-      <c r="Y28" s="168"/>
-      <c r="Z28" s="170"/>
-      <c r="AA28" s="168"/>
-      <c r="AB28" s="171"/>
-      <c r="AC28" s="172"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="170"/>
-      <c r="AF28" s="174"/>
-      <c r="AG28" s="175"/>
-      <c r="AH28" s="175"/>
-      <c r="AI28" s="175"/>
-      <c r="AJ28" s="176"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="120"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="122"/>
+      <c r="AC28" s="123"/>
+      <c r="AD28" s="124"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="126"/>
+      <c r="AI28" s="126"/>
+      <c r="AJ28" s="127"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="178"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="185"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="178"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="185"/>
-      <c r="X29" s="186"/>
-      <c r="Y29" s="178"/>
-      <c r="Z29" s="180"/>
-      <c r="AA29" s="150"/>
-      <c r="AB29" s="153"/>
-      <c r="AC29" s="191"/>
-      <c r="AD29" s="154"/>
-      <c r="AE29" s="180"/>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="181"/>
-      <c r="AH29" s="181"/>
-      <c r="AI29" s="181"/>
-      <c r="AJ29" s="153"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="136"/>
+      <c r="T29" s="136"/>
+      <c r="U29" s="136"/>
+      <c r="V29" s="136"/>
+      <c r="W29" s="136"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="129"/>
+      <c r="Z29" s="131"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="142"/>
+      <c r="AD29" s="105"/>
+      <c r="AE29" s="131"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="132"/>
+      <c r="AJ29" s="104"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="128"/>
-      <c r="B30" s="129" t="s">
+      <c r="A30" s="181"/>
+      <c r="B30" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="156"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="158"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="158"/>
-      <c r="Q30" s="156"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="157"/>
-      <c r="T30" s="157"/>
-      <c r="U30" s="157"/>
-      <c r="V30" s="157"/>
-      <c r="W30" s="157"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="156"/>
-      <c r="Z30" s="159"/>
-      <c r="AA30" s="156"/>
-      <c r="AB30" s="160"/>
-      <c r="AC30" s="161">
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="110"/>
+      <c r="AA30" s="107"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="112">
         <v>1</v>
       </c>
-      <c r="AD30" s="48"/>
-      <c r="AE30" s="159"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="48"/>
-      <c r="AH30" s="48"/>
-      <c r="AI30" s="48"/>
-      <c r="AJ30" s="160"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="110"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="33"/>
+      <c r="AH30" s="33"/>
+      <c r="AI30" s="33"/>
+      <c r="AJ30" s="111"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="128"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="181"/>
+      <c r="B31" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="168"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="168"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="169"/>
-      <c r="Q31" s="168"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="169"/>
-      <c r="Y31" s="168"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="168"/>
-      <c r="AB31" s="171"/>
-      <c r="AC31" s="182">
+      <c r="C31" s="119"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="120"/>
+      <c r="M31" s="119"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="119"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="120"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="133">
         <v>1</v>
       </c>
-      <c r="AD31" s="175"/>
-      <c r="AE31" s="183"/>
-      <c r="AF31" s="168"/>
-      <c r="AG31" s="173"/>
-      <c r="AH31" s="173"/>
-      <c r="AI31" s="173"/>
-      <c r="AJ31" s="171"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="134"/>
+      <c r="AF31" s="119"/>
+      <c r="AG31" s="124"/>
+      <c r="AH31" s="124"/>
+      <c r="AI31" s="124"/>
+      <c r="AJ31" s="122"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="186" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="186"/>
-      <c r="M32" s="178"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="178"/>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="178"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="186"/>
-      <c r="Y32" s="178"/>
-      <c r="Z32" s="180"/>
-      <c r="AA32" s="178"/>
-      <c r="AB32" s="155"/>
-      <c r="AC32" s="184"/>
-      <c r="AD32" s="181"/>
-      <c r="AE32" s="152"/>
-      <c r="AF32" s="192"/>
-      <c r="AG32" s="154"/>
-      <c r="AH32" s="154"/>
-      <c r="AI32" s="154"/>
-      <c r="AJ32" s="155"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="136"/>
+      <c r="S32" s="136"/>
+      <c r="T32" s="136"/>
+      <c r="U32" s="136"/>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="129"/>
+      <c r="Z32" s="131"/>
+      <c r="AA32" s="129"/>
+      <c r="AB32" s="106"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="143"/>
+      <c r="AG32" s="105"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="105"/>
+      <c r="AJ32" s="106"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="141"/>
-      <c r="B33" s="142" t="s">
+      <c r="A33" s="187"/>
+      <c r="B33" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="156"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="157"/>
-      <c r="H33" s="157"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="157"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="156"/>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="156"/>
-      <c r="R33" s="157"/>
-      <c r="S33" s="157"/>
-      <c r="T33" s="157"/>
-      <c r="U33" s="157"/>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="156"/>
-      <c r="Z33" s="159"/>
-      <c r="AA33" s="156"/>
-      <c r="AB33" s="160"/>
-      <c r="AC33" s="161"/>
-      <c r="AD33" s="48"/>
-      <c r="AE33" s="159"/>
-      <c r="AF33" s="156">
+      <c r="C33" s="107"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="111"/>
+      <c r="AC33" s="112"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="107">
         <v>1</v>
       </c>
-      <c r="AG33" s="48"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
-      <c r="AJ33" s="160"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="111"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="141"/>
-      <c r="B34" s="142" t="s">
+      <c r="A34" s="187"/>
+      <c r="B34" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="156"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="157"/>
-      <c r="L34" s="158"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="158"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="158"/>
-      <c r="Q34" s="156"/>
-      <c r="R34" s="157"/>
-      <c r="S34" s="157"/>
-      <c r="T34" s="157"/>
-      <c r="U34" s="157"/>
-      <c r="V34" s="157"/>
-      <c r="W34" s="157"/>
-      <c r="X34" s="158"/>
-      <c r="Y34" s="156"/>
-      <c r="Z34" s="159"/>
-      <c r="AA34" s="156"/>
-      <c r="AB34" s="160"/>
-      <c r="AC34" s="161"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="159"/>
-      <c r="AF34" s="156">
+      <c r="C34" s="107"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="109"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="109"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="110"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="111"/>
+      <c r="AC34" s="112"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="110"/>
+      <c r="AF34" s="107">
         <v>1</v>
       </c>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="160"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="111"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="141"/>
-      <c r="B35" s="142" t="s">
+      <c r="A35" s="187"/>
+      <c r="B35" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="156"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="157"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="156"/>
-      <c r="P35" s="158"/>
-      <c r="Q35" s="156"/>
-      <c r="R35" s="157"/>
-      <c r="S35" s="157"/>
-      <c r="T35" s="157"/>
-      <c r="U35" s="157"/>
-      <c r="V35" s="157"/>
-      <c r="W35" s="157"/>
-      <c r="X35" s="158"/>
-      <c r="Y35" s="156"/>
-      <c r="Z35" s="159"/>
-      <c r="AA35" s="156"/>
-      <c r="AB35" s="160"/>
-      <c r="AC35" s="161"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="159"/>
-      <c r="AF35" s="156">
+      <c r="C35" s="107"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="109"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="107"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="107"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="107"/>
+      <c r="AB35" s="111"/>
+      <c r="AC35" s="112"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="107">
         <v>1</v>
       </c>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
-      <c r="AI35" s="48"/>
-      <c r="AJ35" s="160"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="111"/>
     </row>
     <row r="36" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98" t="s">
+      <c r="A36" s="188"/>
+      <c r="B36" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="168"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="169"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="169"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="169"/>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="121"/>
-      <c r="S36" s="121"/>
-      <c r="T36" s="121"/>
-      <c r="U36" s="121"/>
-      <c r="V36" s="121"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="169"/>
-      <c r="Y36" s="168"/>
-      <c r="Z36" s="170"/>
-      <c r="AA36" s="168"/>
-      <c r="AB36" s="171"/>
-      <c r="AC36" s="172"/>
-      <c r="AD36" s="173"/>
-      <c r="AE36" s="170"/>
-      <c r="AF36" s="168">
+      <c r="C36" s="119"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="82"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="119"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="82"/>
+      <c r="X36" s="120"/>
+      <c r="Y36" s="119"/>
+      <c r="Z36" s="121"/>
+      <c r="AA36" s="119"/>
+      <c r="AB36" s="122"/>
+      <c r="AC36" s="123"/>
+      <c r="AD36" s="124"/>
+      <c r="AE36" s="121"/>
+      <c r="AF36" s="119">
         <v>1</v>
       </c>
-      <c r="AG36" s="173"/>
-      <c r="AH36" s="173"/>
-      <c r="AI36" s="173"/>
-      <c r="AJ36" s="171"/>
+      <c r="AG36" s="124"/>
+      <c r="AH36" s="124"/>
+      <c r="AI36" s="124"/>
+      <c r="AJ36" s="122"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -4441,20 +4472,767 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4E2F91-A0C3-4F5A-874E-856931F65B71}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="36"/>
+    <col min="9" max="9" width="8.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.5703125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="12.85546875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="182"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="168"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="189" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="95"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="190"/>
+      <c r="B4" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="55">
+        <v>1</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="190"/>
+      <c r="B5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="55">
+        <v>1</v>
+      </c>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="40"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="190"/>
+      <c r="B6" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="55">
+        <v>1</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="190"/>
+      <c r="B7" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1</v>
+      </c>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="107"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="190"/>
+      <c r="B8" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="113">
+        <v>1</v>
+      </c>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="107"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="191"/>
+      <c r="B9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="116">
+        <v>1</v>
+      </c>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="125"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="192" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="101"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="101"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="193"/>
+      <c r="B11" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107">
+        <v>1</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="107"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="194"/>
+      <c r="B12" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119">
+        <v>1</v>
+      </c>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="119"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="186" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="129"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="188"/>
+      <c r="B14" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119">
+        <v>1</v>
+      </c>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="125"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="195" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="101"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="196"/>
+      <c r="B16" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125">
+        <v>1</v>
+      </c>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="119"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="197" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="129"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="198"/>
+      <c r="B18" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107">
+        <v>1</v>
+      </c>
+      <c r="H18" s="107"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="107"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="198"/>
+      <c r="B19" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107">
+        <v>1</v>
+      </c>
+      <c r="H19" s="107"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="107"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="198"/>
+      <c r="B20" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107">
+        <v>1</v>
+      </c>
+      <c r="H20" s="107"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="107"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="198"/>
+      <c r="B21" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107">
+        <v>1</v>
+      </c>
+      <c r="H21" s="107"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="107"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="198"/>
+      <c r="B22" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107">
+        <v>1</v>
+      </c>
+      <c r="H22" s="107"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="107"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="198"/>
+      <c r="B23" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107">
+        <v>1</v>
+      </c>
+      <c r="H23" s="107"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="107"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="198"/>
+      <c r="B24" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119">
+        <v>1</v>
+      </c>
+      <c r="H24" s="119"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="119"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="125"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="178"/>
+      <c r="B25" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="129"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="101"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="179"/>
+      <c r="B26" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="119"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="178"/>
+      <c r="B27" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="129"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="179"/>
+      <c r="B28" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="125"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="180" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="101"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="181"/>
+      <c r="B30" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="112">
+        <v>1</v>
+      </c>
+      <c r="M30" s="107"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="181"/>
+      <c r="B31" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="133">
+        <v>1</v>
+      </c>
+      <c r="M31" s="119"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="186" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="143"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="187"/>
+      <c r="B33" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="187"/>
+      <c r="B34" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="187"/>
+      <c r="B35" s="99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="188"/>
+      <c r="B36" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="123"/>
+      <c r="M36" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/merise/travel_agency/Documentation TP Travel Agency/TP TravelAgency.xlsx
+++ b/merise/travel_agency/Documentation TP Travel Agency/TP TravelAgency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fturl\Documents\GitHub\FTurleque\CDA_2111\merise\travel_agency\Documentation TP Travel Agency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217ED7C-245D-434F-A828-FE1C56B2499C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F641F9-920B-4486-948D-4437BCECCAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
@@ -1710,6 +1710,81 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1753,81 +1828,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2112,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,60 +2866,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="182"/>
-      <c r="B1" s="183"/>
-      <c r="C1" s="174" t="s">
+      <c r="A1" s="180"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="176" t="s">
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="159" t="s">
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="162"/>
-      <c r="O1" s="163" t="s">
+      <c r="N1" s="187"/>
+      <c r="O1" s="188" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="165" t="s">
+      <c r="P1" s="189"/>
+      <c r="Q1" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172" t="s">
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="192"/>
+      <c r="Y1" s="193"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="159" t="s">
+      <c r="AD1" s="198"/>
+      <c r="AE1" s="198"/>
+      <c r="AF1" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="AG1" s="160"/>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="160"/>
-      <c r="AJ1" s="161"/>
+      <c r="AG1" s="185"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="185"/>
+      <c r="AJ1" s="186"/>
     </row>
     <row r="2" spans="1:36" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
-      <c r="B2" s="185"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="183"/>
       <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
@@ -3024,7 +3024,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="162" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="51" t="s">
@@ -3066,7 +3066,7 @@
       <c r="AJ3" s="106"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="190"/>
+      <c r="A4" s="163"/>
       <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="AJ4" s="111"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="190"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="52" t="s">
         <v>13</v>
       </c>
@@ -3150,7 +3150,7 @@
       <c r="AJ5" s="111"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="190"/>
+      <c r="A6" s="163"/>
       <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="AJ6" s="111"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="190"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="52" t="s">
         <v>19</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="AJ7" s="111"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="190"/>
+      <c r="A8" s="163"/>
       <c r="B8" s="52" t="s">
         <v>22</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="AJ8" s="111"/>
     </row>
     <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="AJ9" s="127"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="165" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -3360,7 +3360,7 @@
       <c r="AJ10" s="104"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="60" t="s">
         <v>33</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="AJ11" s="111"/>
     </row>
     <row r="12" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="194"/>
+      <c r="A12" s="167"/>
       <c r="B12" s="61" t="s">
         <v>35</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="AJ12" s="122"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="159" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="66" t="s">
@@ -3486,7 +3486,7 @@
       <c r="AJ13" s="106"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="188"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="67" t="s">
         <v>41</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="AJ14" s="127"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="168" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="71" t="s">
@@ -3570,7 +3570,7 @@
       <c r="AJ15" s="104"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="72" t="s">
         <v>46</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="AJ16" s="122"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="170" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="79" t="s">
@@ -3654,7 +3654,7 @@
       <c r="AJ17" s="106"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
+      <c r="A18" s="171"/>
       <c r="B18" s="80" t="s">
         <v>50</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="AJ18" s="111"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
+      <c r="A19" s="171"/>
       <c r="B19" s="80" t="s">
         <v>52</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="AJ19" s="111"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="198"/>
+      <c r="A20" s="171"/>
       <c r="B20" s="80" t="s">
         <v>55</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="AJ20" s="111"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="198"/>
+      <c r="A21" s="171"/>
       <c r="B21" s="80" t="s">
         <v>60</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="AJ21" s="111"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="198"/>
+      <c r="A22" s="171"/>
       <c r="B22" s="80" t="s">
         <v>62</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="AJ22" s="111"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="198"/>
+      <c r="A23" s="171"/>
       <c r="B23" s="80" t="s">
         <v>65</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="AJ23" s="111"/>
     </row>
     <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="198"/>
+      <c r="A24" s="171"/>
       <c r="B24" s="81" t="s">
         <v>67</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="AJ24" s="127"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="178"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="39" t="s">
         <v>71</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="AJ25" s="104"/>
     </row>
     <row r="26" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="41" t="s">
         <v>73</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="AJ26" s="122"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="178"/>
+      <c r="A27" s="176"/>
       <c r="B27" s="39" t="s">
         <v>76</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="AJ27" s="106"/>
     </row>
     <row r="28" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="41" t="s">
         <v>78</v>
       </c>
@@ -4108,7 +4108,7 @@
       <c r="AJ28" s="127"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="178" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="87" t="s">
@@ -4150,7 +4150,7 @@
       <c r="AJ29" s="104"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
+      <c r="A30" s="179"/>
       <c r="B30" s="88" t="s">
         <v>82</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="AJ30" s="111"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="89" t="s">
         <v>84</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="AJ31" s="122"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="159" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="66" t="s">
@@ -4276,7 +4276,7 @@
       <c r="AJ32" s="106"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="187"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="99" t="s">
         <v>88</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="AJ33" s="111"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="187"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="99" t="s">
         <v>90</v>
       </c>
@@ -4360,7 +4360,7 @@
       <c r="AJ34" s="111"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="187"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="99" t="s">
         <v>92</v>
       </c>
@@ -4402,7 +4402,7 @@
       <c r="AJ35" s="111"/>
     </row>
     <row r="36" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="188"/>
+      <c r="A36" s="161"/>
       <c r="B36" s="67" t="s">
         <v>95</v>
       </c>
@@ -4453,18 +4453,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -4472,6 +4460,18 @@
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4482,7 +4482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4E2F91-A0C3-4F5A-874E-856931F65B71}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4507,8 +4507,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="182"/>
-      <c r="B1" s="183"/>
+      <c r="A1" s="180"/>
+      <c r="B1" s="181"/>
       <c r="C1" s="47" t="s">
         <v>98</v>
       </c>
@@ -4524,10 +4524,10 @@
       <c r="G1" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="168"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="171"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="196"/>
       <c r="L1" s="90" t="s">
         <v>103</v>
       </c>
@@ -4536,8 +4536,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
-      <c r="B2" s="185"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="183"/>
       <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
@@ -4573,7 +4573,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="162" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="51" t="s">
@@ -4592,7 +4592,7 @@
       <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="190"/>
+      <c r="A4" s="163"/>
       <c r="B4" s="52" t="s">
         <v>9</v>
       </c>
@@ -4611,7 +4611,7 @@
       <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="190"/>
+      <c r="A5" s="163"/>
       <c r="B5" s="52" t="s">
         <v>13</v>
       </c>
@@ -4630,7 +4630,7 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="190"/>
+      <c r="A6" s="163"/>
       <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="190"/>
+      <c r="A7" s="163"/>
       <c r="B7" s="52" t="s">
         <v>19</v>
       </c>
@@ -4668,7 +4668,7 @@
       <c r="M7" s="107"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="190"/>
+      <c r="A8" s="163"/>
       <c r="B8" s="52" t="s">
         <v>22</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="M8" s="107"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="50" t="s">
         <v>27</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="M9" s="125"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="165" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -4725,7 +4725,7 @@
       <c r="M10" s="101"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
+      <c r="A11" s="166"/>
       <c r="B11" s="60" t="s">
         <v>33</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="M11" s="107"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="194"/>
+      <c r="A12" s="167"/>
       <c r="B12" s="61" t="s">
         <v>35</v>
       </c>
@@ -4763,7 +4763,7 @@
       <c r="M12" s="119"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="159" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="66" t="s">
@@ -4782,7 +4782,7 @@
       <c r="M13" s="129"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="188"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="67" t="s">
         <v>41</v>
       </c>
@@ -4801,7 +4801,7 @@
       <c r="M14" s="125"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="168" t="s">
         <v>101</v>
       </c>
       <c r="B15" s="71" t="s">
@@ -4820,7 +4820,7 @@
       <c r="M15" s="101"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="196"/>
+      <c r="A16" s="169"/>
       <c r="B16" s="72" t="s">
         <v>46</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="M16" s="119"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="170" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="79" t="s">
@@ -4858,7 +4858,7 @@
       <c r="M17" s="129"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
+      <c r="A18" s="171"/>
       <c r="B18" s="80" t="s">
         <v>50</v>
       </c>
@@ -4877,7 +4877,7 @@
       <c r="M18" s="107"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
+      <c r="A19" s="171"/>
       <c r="B19" s="80" t="s">
         <v>52</v>
       </c>
@@ -4896,7 +4896,7 @@
       <c r="M19" s="107"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="198"/>
+      <c r="A20" s="171"/>
       <c r="B20" s="80" t="s">
         <v>55</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="M20" s="107"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="198"/>
+      <c r="A21" s="171"/>
       <c r="B21" s="80" t="s">
         <v>60</v>
       </c>
@@ -4934,7 +4934,7 @@
       <c r="M21" s="107"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="198"/>
+      <c r="A22" s="171"/>
       <c r="B22" s="80" t="s">
         <v>62</v>
       </c>
@@ -4953,7 +4953,7 @@
       <c r="M22" s="107"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="198"/>
+      <c r="A23" s="171"/>
       <c r="B23" s="80" t="s">
         <v>65</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="M23" s="107"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="198"/>
+      <c r="A24" s="171"/>
       <c r="B24" s="81" t="s">
         <v>67</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="M24" s="125"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="178"/>
+      <c r="A25" s="176"/>
       <c r="B25" s="39" t="s">
         <v>71</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="M25" s="101"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="41" t="s">
         <v>73</v>
       </c>
@@ -5025,7 +5025,7 @@
       <c r="M26" s="119"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="178"/>
+      <c r="A27" s="176"/>
       <c r="B27" s="39" t="s">
         <v>76</v>
       </c>
@@ -5042,7 +5042,7 @@
       <c r="M27" s="129"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="179"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="41" t="s">
         <v>78</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="M28" s="125"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="178" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="87" t="s">
@@ -5078,7 +5078,7 @@
       <c r="M29" s="101"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
+      <c r="A30" s="179"/>
       <c r="B30" s="88" t="s">
         <v>82</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="M30" s="107"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="89" t="s">
         <v>84</v>
       </c>
@@ -5116,7 +5116,7 @@
       <c r="M31" s="119"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="159" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="66" t="s">
@@ -5135,7 +5135,7 @@
       <c r="M32" s="143"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="187"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="99" t="s">
         <v>88</v>
       </c>
@@ -5154,7 +5154,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="187"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="99" t="s">
         <v>90</v>
       </c>
@@ -5173,7 +5173,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="187"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="99" t="s">
         <v>92</v>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="188"/>
+      <c r="A36" s="161"/>
       <c r="B36" s="67" t="s">
         <v>95</v>
       </c>
@@ -5220,6 +5220,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
@@ -5227,11 +5232,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A31"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
